--- a/output/medicos del mundo.xlsx
+++ b/output/medicos del mundo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -921,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ153"/>
+  <dimension ref="A1:AM153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,7 +939,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,10 +1048,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1141,15 +1159,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>839000</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1248,15 +1275,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>369000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1355,15 +1391,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>368000</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1462,15 +1507,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>540000</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1569,15 +1623,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>541000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1676,15 +1739,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>421000</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1783,15 +1855,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>342000</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1890,15 +1971,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>29000</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1997,15 +2087,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>131000</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2104,15 +2203,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>659000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2211,15 +2319,24 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>443000</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2318,15 +2435,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>563490</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2425,15 +2551,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>1810025</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2532,15 +2667,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>602692</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2639,15 +2783,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>586313</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2746,15 +2899,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>1018496</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2853,15 +3015,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>45260</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2960,15 +3131,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>310699</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3067,15 +3247,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>407604</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3174,15 +3363,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3281,15 +3479,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>884046</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3388,15 +3595,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>333073</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3495,15 +3711,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>413853</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3602,15 +3827,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>705243</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3709,15 +3943,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>708500</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3816,15 +4059,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1047197</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3923,15 +4175,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>712215</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4030,15 +4291,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>540396</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4137,15 +4407,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>315000</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4244,15 +4523,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>267467</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4351,15 +4639,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>117925</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4458,15 +4755,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>528000</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4565,15 +4871,24 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>413853</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4672,15 +4987,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>2061672</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4779,15 +5103,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>1175000</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4886,15 +5219,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>515043</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4993,15 +5335,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>800000</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5100,15 +5451,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>380000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5207,15 +5567,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>250000</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5314,15 +5683,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5421,15 +5799,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>1100000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5528,15 +5915,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>560000</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5635,15 +6031,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>800000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5742,15 +6147,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>700000</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5849,15 +6263,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>1100000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5956,15 +6379,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>650000</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6063,15 +6495,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>700000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6170,15 +6611,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>350000</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6277,15 +6727,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>280000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6384,15 +6843,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>400000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6491,15 +6959,24 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>1200000</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6598,15 +7075,24 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>279000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6705,15 +7191,24 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>231000</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6812,15 +7307,24 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>241000</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6919,15 +7423,24 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>154000</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7026,15 +7539,24 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>191500</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7133,15 +7655,24 @@
         <v>0</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>159000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7240,15 +7771,24 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>224500</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7347,15 +7887,24 @@
         <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>57000</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7454,15 +8003,24 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>43000</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7561,21 +8119,30 @@
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>3500</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7668,15 +8235,24 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>11000</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7775,15 +8351,24 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>173500</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7882,15 +8467,24 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>616500</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7989,15 +8583,24 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>14000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8096,15 +8699,24 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>277500</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8203,15 +8815,24 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>568500</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8310,15 +8931,24 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>202000</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8417,15 +9047,24 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>461500</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8524,15 +9163,24 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>105500</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8631,15 +9279,24 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>503000</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8738,15 +9395,24 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>287000</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8845,15 +9511,24 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>279000</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8952,15 +9627,24 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>231000</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9059,15 +9743,24 @@
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>241000</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9166,15 +9859,24 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>154000</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9273,15 +9975,24 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>191500</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9380,15 +10091,24 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>159000</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9487,15 +10207,24 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>224500</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9594,15 +10323,24 @@
         <v>0</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ81">
+        <v>1</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>57000</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9701,15 +10439,24 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>43000</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9808,21 +10555,30 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>3500</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -9915,15 +10671,24 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>11000</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10022,15 +10787,24 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>173500</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10129,15 +10903,24 @@
         <v>0</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>616500</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10236,15 +11019,24 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ87">
+        <v>1</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>14000</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10343,15 +11135,24 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>277500</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10450,15 +11251,24 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ89">
+        <v>1</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>568500</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10557,15 +11367,24 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ90">
+        <v>1</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>202000</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10664,15 +11483,24 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>461500</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10771,15 +11599,24 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>105500</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10878,15 +11715,24 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ93">
+        <v>1</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>503000</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10985,15 +11831,24 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ94">
+        <v>1</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>287000</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11092,15 +11947,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>165500</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11199,15 +12063,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ96">
+        <v>1</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>237000</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11306,15 +12179,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ97">
+        <v>1</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>467000</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11413,15 +12295,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ98">
+        <v>1</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>49500</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11520,15 +12411,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ99">
+        <v>1</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>252000</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11627,15 +12527,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ100">
+        <v>1</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>32000</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11734,15 +12643,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ101">
+        <v>1</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>153000</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -11841,15 +12759,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ102">
+        <v>1</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>474500</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -11948,15 +12875,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ103">
+        <v>1</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>230000</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12055,15 +12991,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ104">
+        <v>1</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>374500</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12162,15 +13107,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ105">
+        <v>1</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>98000</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12269,15 +13223,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ106">
+        <v>1</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>232500</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12376,15 +13339,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ107">
+        <v>1</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>80000</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12483,15 +13455,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ108">
+        <v>1</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>83000</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12590,15 +13571,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ109">
+        <v>1</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>684500</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -12697,15 +13687,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ110">
+        <v>1</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>233000</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -12804,15 +13803,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ111">
+        <v>1</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>2696500</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12911,15 +13919,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ112">
+        <v>1</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>85500</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13018,15 +14035,24 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ113">
+        <v>1</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>82500</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13125,15 +14151,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>165500</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13232,15 +14267,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ115">
+        <v>1</v>
+      </c>
+      <c r="AK115">
+        <v>1</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>237000</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13339,15 +14383,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ116">
+        <v>1</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>467000</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13446,15 +14499,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ117">
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>49500</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13553,15 +14615,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ118">
+        <v>1</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>252000</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13660,15 +14731,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ119">
+        <v>1</v>
+      </c>
+      <c r="AK119">
+        <v>1</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>32000</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13767,15 +14847,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ120">
+        <v>1</v>
+      </c>
+      <c r="AK120">
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>153000</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13874,15 +14963,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ121">
+        <v>1</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>474500</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13981,15 +15079,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>230000</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14088,15 +15195,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ123">
+        <v>1</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>374500</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14195,15 +15311,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ124">
+        <v>1</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>98000</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14302,15 +15427,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ125">
+        <v>1</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>232500</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14409,15 +15543,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ126">
+        <v>1</v>
+      </c>
+      <c r="AK126">
+        <v>1</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>80000</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14516,15 +15659,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ127">
+        <v>1</v>
+      </c>
+      <c r="AK127">
+        <v>1</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>83000</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14623,15 +15775,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ128">
+        <v>1</v>
+      </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>684500</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14730,15 +15891,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ129">
+        <v>1</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>233000</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14837,15 +16007,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ130">
+        <v>1</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>2696500</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14944,15 +16123,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ131">
+        <v>1</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>85500</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15051,15 +16239,24 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ132">
+        <v>1</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>82500</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -15158,15 +16355,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ133">
+        <v>1</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>557000</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -15265,15 +16471,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ134">
+        <v>1</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>285000</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15372,15 +16587,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ135">
+        <v>1</v>
+      </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>356000</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -15479,15 +16703,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ136">
+        <v>1</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>956000</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15586,15 +16819,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ137">
+        <v>1</v>
+      </c>
+      <c r="AK137">
+        <v>1</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>84000</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15693,15 +16935,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ138">
+        <v>1</v>
+      </c>
+      <c r="AK138">
+        <v>1</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>361000</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15800,15 +17051,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ139">
+        <v>1</v>
+      </c>
+      <c r="AK139">
+        <v>1</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>271000</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -15907,15 +17167,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ140">
+        <v>1</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>1268000</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16014,15 +17283,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ141">
+        <v>1</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>129000</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -16121,15 +17399,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ142">
+        <v>1</v>
+      </c>
+      <c r="AK142">
+        <v>1</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>3000</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -16228,15 +17515,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ143">
+        <v>1</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>610000</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -16335,15 +17631,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ144">
+        <v>1</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>217000</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -16442,15 +17747,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ145">
+        <v>1</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>187000</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16549,15 +17863,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ146">
+        <v>1</v>
+      </c>
+      <c r="AK146">
+        <v>1</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>87000</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -16656,15 +17979,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ147">
+        <v>1</v>
+      </c>
+      <c r="AK147">
+        <v>1</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>1302000</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -16763,15 +18095,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ148">
+        <v>1</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>476000</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -16870,21 +18211,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ149">
+        <v>1</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>1373000</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -16977,15 +18327,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ150">
+        <v>1</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>66000</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -17084,15 +18443,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ151">
+        <v>1</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>177000</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17191,15 +18559,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ152">
+        <v>1</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>451000</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17298,9 +18675,18 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ153">
+        <v>1</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>227000</v>
       </c>
     </row>

--- a/output/medicos del mundo.xlsx
+++ b/output/medicos del mundo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -930,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM153"/>
+  <dimension ref="A1:AO153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,7 +945,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,10 +1063,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1159,11 +1171,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI2">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ2">
         <v>1990</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
       <c r="AK2">
         <v>1</v>
       </c>
@@ -1171,12 +1183,18 @@
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>839000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1275,11 +1293,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI3">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ3">
         <v>1990</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
         <v>1</v>
       </c>
@@ -1287,12 +1305,18 @@
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>369000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1391,11 +1415,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI4">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ4">
         <v>1990</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
         <v>1</v>
       </c>
@@ -1403,12 +1427,18 @@
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>368000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1507,11 +1537,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI5">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ5">
         <v>1990</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1519,12 +1549,18 @@
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>540000</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1623,11 +1659,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI6">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ6">
         <v>1990</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
         <v>1</v>
       </c>
@@ -1635,12 +1671,18 @@
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>541000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1739,11 +1781,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI7">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ7">
         <v>1990</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
       <c r="AK7">
         <v>1</v>
       </c>
@@ -1751,12 +1793,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>421000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1855,11 +1903,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI8">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ8">
         <v>1990</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
       <c r="AK8">
         <v>1</v>
       </c>
@@ -1867,12 +1915,18 @@
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>342000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1971,11 +2025,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI9">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ9">
         <v>1990</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
       <c r="AK9">
         <v>1</v>
       </c>
@@ -1983,12 +2037,18 @@
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>29000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2087,11 +2147,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI10">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ10">
         <v>1990</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
       <c r="AK10">
         <v>1</v>
       </c>
@@ -2099,12 +2159,18 @@
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>131000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2203,11 +2269,11 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI11">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ11">
         <v>1990</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
       <c r="AK11">
         <v>1</v>
       </c>
@@ -2215,12 +2281,18 @@
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>659000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2319,24 +2391,30 @@
         <v>0.2887854360439288</v>
       </c>
       <c r="AI12">
+        <v>0.2555927339217131</v>
+      </c>
+      <c r="AJ12">
         <v>1990</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>443000</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2435,24 +2513,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI13">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ13">
         <v>1990</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>563490</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2551,24 +2635,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI14">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ14">
         <v>1990</v>
       </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>1810025</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2667,24 +2757,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI15">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ15">
         <v>1990</v>
       </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>602692</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2783,24 +2879,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI16">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ16">
         <v>1990</v>
       </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>586313</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2899,11 +3001,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI17">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ17">
         <v>1990</v>
       </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
       <c r="AK17">
         <v>1</v>
       </c>
@@ -2911,12 +3013,18 @@
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>1018496</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3015,24 +3123,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI18">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ18">
         <v>1990</v>
       </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>45260</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3131,24 +3245,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI19">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ19">
         <v>1990</v>
       </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>310699</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3247,24 +3367,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI20">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ20">
         <v>1990</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>407604</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3363,24 +3489,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI21">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ21">
         <v>1990</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3479,24 +3611,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI22">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ22">
         <v>1990</v>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>884046</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3595,24 +3733,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI23">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ23">
         <v>1990</v>
       </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>333073</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3711,11 +3855,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI24">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ24">
         <v>1990</v>
       </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
       <c r="AK24">
         <v>1</v>
       </c>
@@ -3723,12 +3867,18 @@
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>413853</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3827,11 +3977,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI25">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ25">
         <v>1990</v>
       </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
       <c r="AK25">
         <v>1</v>
       </c>
@@ -3839,12 +3989,18 @@
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>705243</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3943,11 +4099,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI26">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ26">
         <v>1990</v>
       </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
       <c r="AK26">
         <v>1</v>
       </c>
@@ -3955,12 +4111,18 @@
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>708500</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4059,24 +4221,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI27">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ27">
         <v>1990</v>
       </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1047197</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4175,11 +4343,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI28">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ28">
         <v>1990</v>
       </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
       <c r="AK28">
         <v>1</v>
       </c>
@@ -4187,12 +4355,18 @@
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>712215</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4291,11 +4465,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI29">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ29">
         <v>1990</v>
       </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
       <c r="AK29">
         <v>1</v>
       </c>
@@ -4303,12 +4477,18 @@
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>540396</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4407,11 +4587,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI30">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ30">
         <v>1990</v>
       </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
       <c r="AK30">
         <v>1</v>
       </c>
@@ -4419,12 +4599,18 @@
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>315000</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4523,11 +4709,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI31">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ31">
         <v>1990</v>
       </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
       <c r="AK31">
         <v>1</v>
       </c>
@@ -4535,12 +4721,18 @@
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>267467</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4639,11 +4831,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI32">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ32">
         <v>1990</v>
       </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
       <c r="AK32">
         <v>1</v>
       </c>
@@ -4651,12 +4843,18 @@
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>117925</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4755,11 +4953,11 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI33">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ33">
         <v>1990</v>
       </c>
-      <c r="AJ33">
-        <v>1</v>
-      </c>
       <c r="AK33">
         <v>1</v>
       </c>
@@ -4767,12 +4965,18 @@
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>528000</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4871,24 +5075,30 @@
         <v>0.3361988254319517</v>
       </c>
       <c r="AI34">
+        <v>0.3266235424291429</v>
+      </c>
+      <c r="AJ34">
         <v>1990</v>
       </c>
-      <c r="AJ34">
-        <v>1</v>
-      </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>413853</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4987,24 +5197,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI35">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ35">
         <v>1990</v>
       </c>
-      <c r="AJ35">
-        <v>1</v>
-      </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>2061672</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5103,24 +5319,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI36">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ36">
         <v>1990</v>
       </c>
-      <c r="AJ36">
-        <v>1</v>
-      </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>1175000</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5219,24 +5441,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI37">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ37">
         <v>1990</v>
       </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
       <c r="AK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>515043</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5335,11 +5563,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI38">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ38">
         <v>1990</v>
       </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
       <c r="AK38">
         <v>1</v>
       </c>
@@ -5347,12 +5575,18 @@
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>800000</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5451,24 +5685,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI39">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ39">
         <v>1990</v>
       </c>
-      <c r="AJ39">
-        <v>1</v>
-      </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>380000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5567,24 +5807,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI40">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ40">
         <v>1990</v>
       </c>
-      <c r="AJ40">
-        <v>1</v>
-      </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>250000</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5683,24 +5929,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI41">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ41">
         <v>1990</v>
       </c>
-      <c r="AJ41">
-        <v>1</v>
-      </c>
       <c r="AK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>750000</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5799,24 +6051,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI42">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ42">
         <v>1990</v>
       </c>
-      <c r="AJ42">
-        <v>1</v>
-      </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>1100000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5915,24 +6173,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI43">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ43">
         <v>1990</v>
       </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>560000</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6031,11 +6295,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI44">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ44">
         <v>1990</v>
       </c>
-      <c r="AJ44">
-        <v>1</v>
-      </c>
       <c r="AK44">
         <v>1</v>
       </c>
@@ -6043,12 +6307,18 @@
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>800000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6147,11 +6417,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI45">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ45">
         <v>1990</v>
       </c>
-      <c r="AJ45">
-        <v>1</v>
-      </c>
       <c r="AK45">
         <v>1</v>
       </c>
@@ -6159,12 +6429,18 @@
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>700000</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6263,24 +6539,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI46">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ46">
         <v>1990</v>
       </c>
-      <c r="AJ46">
-        <v>1</v>
-      </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>1100000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6379,11 +6661,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI47">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ47">
         <v>1990</v>
       </c>
-      <c r="AJ47">
-        <v>1</v>
-      </c>
       <c r="AK47">
         <v>1</v>
       </c>
@@ -6391,12 +6673,18 @@
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>650000</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6495,11 +6783,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI48">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ48">
         <v>1990</v>
       </c>
-      <c r="AJ48">
-        <v>1</v>
-      </c>
       <c r="AK48">
         <v>1</v>
       </c>
@@ -6507,12 +6795,18 @@
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>700000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6611,11 +6905,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI49">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ49">
         <v>1990</v>
       </c>
-      <c r="AJ49">
-        <v>1</v>
-      </c>
       <c r="AK49">
         <v>1</v>
       </c>
@@ -6623,12 +6917,18 @@
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>350000</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6727,11 +7027,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI50">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ50">
         <v>1990</v>
       </c>
-      <c r="AJ50">
-        <v>1</v>
-      </c>
       <c r="AK50">
         <v>1</v>
       </c>
@@ -6739,12 +7039,18 @@
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>280000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6843,11 +7149,11 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI51">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ51">
         <v>1990</v>
       </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
       <c r="AK51">
         <v>1</v>
       </c>
@@ -6855,12 +7161,18 @@
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>400000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6959,24 +7271,30 @@
         <v>0.3390874624449708</v>
       </c>
       <c r="AI52">
+        <v>0.3235819927553969</v>
+      </c>
+      <c r="AJ52">
         <v>1990</v>
       </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
       <c r="AK52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>1200000</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7075,11 +7393,11 @@
         <v>0</v>
       </c>
       <c r="AI53">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ53">
         <v>1990</v>
       </c>
-      <c r="AJ53">
-        <v>1</v>
-      </c>
       <c r="AK53">
         <v>1</v>
       </c>
@@ -7087,12 +7405,18 @@
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>279000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7191,11 +7515,11 @@
         <v>0</v>
       </c>
       <c r="AI54">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ54">
         <v>1990</v>
       </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
       <c r="AK54">
         <v>1</v>
       </c>
@@ -7203,12 +7527,18 @@
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>231000</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7307,11 +7637,11 @@
         <v>0</v>
       </c>
       <c r="AI55">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ55">
         <v>1990</v>
       </c>
-      <c r="AJ55">
-        <v>1</v>
-      </c>
       <c r="AK55">
         <v>1</v>
       </c>
@@ -7319,12 +7649,18 @@
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>241000</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7423,11 +7759,11 @@
         <v>0</v>
       </c>
       <c r="AI56">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ56">
         <v>1990</v>
       </c>
-      <c r="AJ56">
-        <v>1</v>
-      </c>
       <c r="AK56">
         <v>1</v>
       </c>
@@ -7435,12 +7771,18 @@
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>154000</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7539,11 +7881,11 @@
         <v>0</v>
       </c>
       <c r="AI57">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ57">
         <v>1990</v>
       </c>
-      <c r="AJ57">
-        <v>1</v>
-      </c>
       <c r="AK57">
         <v>1</v>
       </c>
@@ -7551,12 +7893,18 @@
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>191500</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7655,11 +8003,11 @@
         <v>0</v>
       </c>
       <c r="AI58">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ58">
         <v>1990</v>
       </c>
-      <c r="AJ58">
-        <v>1</v>
-      </c>
       <c r="AK58">
         <v>1</v>
       </c>
@@ -7667,12 +8015,18 @@
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>159000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7771,11 +8125,11 @@
         <v>0</v>
       </c>
       <c r="AI59">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ59">
         <v>1990</v>
       </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
       <c r="AK59">
         <v>1</v>
       </c>
@@ -7783,12 +8137,18 @@
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>224500</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7887,11 +8247,11 @@
         <v>0</v>
       </c>
       <c r="AI60">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ60">
         <v>1990</v>
       </c>
-      <c r="AJ60">
-        <v>1</v>
-      </c>
       <c r="AK60">
         <v>1</v>
       </c>
@@ -7899,12 +8259,18 @@
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>57000</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8003,24 +8369,30 @@
         <v>0</v>
       </c>
       <c r="AI61">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ61">
         <v>1990</v>
       </c>
-      <c r="AJ61">
-        <v>1</v>
-      </c>
       <c r="AK61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>43000</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8119,30 +8491,36 @@
         <v>0</v>
       </c>
       <c r="AI62">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ62">
         <v>1990</v>
       </c>
-      <c r="AJ62">
-        <v>1</v>
-      </c>
       <c r="AK62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>3500</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8235,24 +8613,30 @@
         <v>0</v>
       </c>
       <c r="AI63">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ63">
         <v>1990</v>
       </c>
-      <c r="AJ63">
-        <v>1</v>
-      </c>
       <c r="AK63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>11000</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8351,24 +8735,30 @@
         <v>0</v>
       </c>
       <c r="AI64">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ64">
         <v>1990</v>
       </c>
-      <c r="AJ64">
-        <v>1</v>
-      </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>173500</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8467,24 +8857,30 @@
         <v>0</v>
       </c>
       <c r="AI65">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ65">
         <v>1990</v>
       </c>
-      <c r="AJ65">
-        <v>1</v>
-      </c>
       <c r="AK65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>616500</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8583,24 +8979,30 @@
         <v>0</v>
       </c>
       <c r="AI66">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ66">
         <v>1990</v>
       </c>
-      <c r="AJ66">
-        <v>1</v>
-      </c>
       <c r="AK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>14000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8699,24 +9101,30 @@
         <v>0</v>
       </c>
       <c r="AI67">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ67">
         <v>1990</v>
       </c>
-      <c r="AJ67">
-        <v>1</v>
-      </c>
       <c r="AK67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>277500</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8815,24 +9223,30 @@
         <v>0</v>
       </c>
       <c r="AI68">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ68">
         <v>1990</v>
       </c>
-      <c r="AJ68">
-        <v>1</v>
-      </c>
       <c r="AK68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>568500</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8931,24 +9345,30 @@
         <v>0</v>
       </c>
       <c r="AI69">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ69">
         <v>1990</v>
       </c>
-      <c r="AJ69">
-        <v>1</v>
-      </c>
       <c r="AK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>202000</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9047,24 +9467,30 @@
         <v>0</v>
       </c>
       <c r="AI70">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ70">
         <v>1990</v>
       </c>
-      <c r="AJ70">
-        <v>1</v>
-      </c>
       <c r="AK70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>461500</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9163,24 +9589,30 @@
         <v>0</v>
       </c>
       <c r="AI71">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ71">
         <v>1990</v>
       </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
       <c r="AK71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>105500</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9279,11 +9711,11 @@
         <v>0</v>
       </c>
       <c r="AI72">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ72">
         <v>1990</v>
       </c>
-      <c r="AJ72">
-        <v>1</v>
-      </c>
       <c r="AK72">
         <v>1</v>
       </c>
@@ -9291,12 +9723,18 @@
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>503000</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9395,24 +9833,30 @@
         <v>0</v>
       </c>
       <c r="AI73">
+        <v>0.5274893430976063</v>
+      </c>
+      <c r="AJ73">
         <v>1990</v>
       </c>
-      <c r="AJ73">
-        <v>1</v>
-      </c>
       <c r="AK73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>287000</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9511,11 +9955,11 @@
         <v>0</v>
       </c>
       <c r="AI74">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ74">
         <v>1990</v>
       </c>
-      <c r="AJ74">
-        <v>1</v>
-      </c>
       <c r="AK74">
         <v>1</v>
       </c>
@@ -9523,12 +9967,18 @@
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>279000</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9627,11 +10077,11 @@
         <v>0</v>
       </c>
       <c r="AI75">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ75">
         <v>1990</v>
       </c>
-      <c r="AJ75">
-        <v>1</v>
-      </c>
       <c r="AK75">
         <v>1</v>
       </c>
@@ -9639,12 +10089,18 @@
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>231000</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9743,11 +10199,11 @@
         <v>0</v>
       </c>
       <c r="AI76">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ76">
         <v>1990</v>
       </c>
-      <c r="AJ76">
-        <v>1</v>
-      </c>
       <c r="AK76">
         <v>1</v>
       </c>
@@ -9755,12 +10211,18 @@
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>241000</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9859,11 +10321,11 @@
         <v>0</v>
       </c>
       <c r="AI77">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ77">
         <v>1990</v>
       </c>
-      <c r="AJ77">
-        <v>1</v>
-      </c>
       <c r="AK77">
         <v>1</v>
       </c>
@@ -9871,12 +10333,18 @@
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>154000</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9975,11 +10443,11 @@
         <v>0</v>
       </c>
       <c r="AI78">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ78">
         <v>1990</v>
       </c>
-      <c r="AJ78">
-        <v>1</v>
-      </c>
       <c r="AK78">
         <v>1</v>
       </c>
@@ -9987,12 +10455,18 @@
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>191500</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -10091,11 +10565,11 @@
         <v>0</v>
       </c>
       <c r="AI79">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ79">
         <v>1990</v>
       </c>
-      <c r="AJ79">
-        <v>1</v>
-      </c>
       <c r="AK79">
         <v>1</v>
       </c>
@@ -10103,12 +10577,18 @@
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>159000</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10207,11 +10687,11 @@
         <v>0</v>
       </c>
       <c r="AI80">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ80">
         <v>1990</v>
       </c>
-      <c r="AJ80">
-        <v>1</v>
-      </c>
       <c r="AK80">
         <v>1</v>
       </c>
@@ -10219,12 +10699,18 @@
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>224500</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10323,11 +10809,11 @@
         <v>0</v>
       </c>
       <c r="AI81">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ81">
         <v>1990</v>
       </c>
-      <c r="AJ81">
-        <v>1</v>
-      </c>
       <c r="AK81">
         <v>1</v>
       </c>
@@ -10335,12 +10821,18 @@
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>57000</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10439,24 +10931,30 @@
         <v>0</v>
       </c>
       <c r="AI82">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ82">
         <v>1990</v>
       </c>
-      <c r="AJ82">
-        <v>1</v>
-      </c>
       <c r="AK82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>43000</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10555,30 +11053,36 @@
         <v>0</v>
       </c>
       <c r="AI83">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ83">
         <v>1990</v>
       </c>
-      <c r="AJ83">
-        <v>1</v>
-      </c>
       <c r="AK83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>3500</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -10671,24 +11175,30 @@
         <v>0</v>
       </c>
       <c r="AI84">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ84">
         <v>1990</v>
       </c>
-      <c r="AJ84">
-        <v>1</v>
-      </c>
       <c r="AK84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>11000</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10787,24 +11297,30 @@
         <v>0</v>
       </c>
       <c r="AI85">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ85">
         <v>1990</v>
       </c>
-      <c r="AJ85">
-        <v>1</v>
-      </c>
       <c r="AK85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>173500</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10903,24 +11419,30 @@
         <v>0</v>
       </c>
       <c r="AI86">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ86">
         <v>1990</v>
       </c>
-      <c r="AJ86">
-        <v>1</v>
-      </c>
       <c r="AK86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>616500</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11019,24 +11541,30 @@
         <v>0</v>
       </c>
       <c r="AI87">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ87">
         <v>1990</v>
       </c>
-      <c r="AJ87">
-        <v>1</v>
-      </c>
       <c r="AK87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>14000</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11135,24 +11663,30 @@
         <v>0</v>
       </c>
       <c r="AI88">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ88">
         <v>1990</v>
       </c>
-      <c r="AJ88">
-        <v>1</v>
-      </c>
       <c r="AK88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>277500</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11251,24 +11785,30 @@
         <v>0</v>
       </c>
       <c r="AI89">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ89">
         <v>1990</v>
       </c>
-      <c r="AJ89">
-        <v>1</v>
-      </c>
       <c r="AK89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>568500</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11367,24 +11907,30 @@
         <v>0</v>
       </c>
       <c r="AI90">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ90">
         <v>1990</v>
       </c>
-      <c r="AJ90">
-        <v>1</v>
-      </c>
       <c r="AK90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>202000</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11483,24 +12029,30 @@
         <v>0</v>
       </c>
       <c r="AI91">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ91">
         <v>1990</v>
       </c>
-      <c r="AJ91">
-        <v>1</v>
-      </c>
       <c r="AK91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>461500</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11599,24 +12151,30 @@
         <v>0</v>
       </c>
       <c r="AI92">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ92">
         <v>1990</v>
       </c>
-      <c r="AJ92">
-        <v>1</v>
-      </c>
       <c r="AK92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>105500</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11715,11 +12273,11 @@
         <v>0</v>
       </c>
       <c r="AI93">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ93">
         <v>1990</v>
       </c>
-      <c r="AJ93">
-        <v>1</v>
-      </c>
       <c r="AK93">
         <v>1</v>
       </c>
@@ -11727,12 +12285,18 @@
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>503000</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11831,24 +12395,30 @@
         <v>0</v>
       </c>
       <c r="AI94">
+        <v>0.5084557187360925</v>
+      </c>
+      <c r="AJ94">
         <v>1990</v>
       </c>
-      <c r="AJ94">
-        <v>1</v>
-      </c>
       <c r="AK94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>287000</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11947,24 +12517,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI95">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ95">
         <v>1990</v>
       </c>
-      <c r="AJ95">
-        <v>1</v>
-      </c>
       <c r="AK95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>165500</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -12063,11 +12639,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI96">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ96">
         <v>1990</v>
       </c>
-      <c r="AJ96">
-        <v>1</v>
-      </c>
       <c r="AK96">
         <v>1</v>
       </c>
@@ -12075,12 +12651,18 @@
         <v>1</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>237000</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12179,24 +12761,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI97">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ97">
         <v>1990</v>
       </c>
-      <c r="AJ97">
-        <v>1</v>
-      </c>
       <c r="AK97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>467000</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12295,11 +12883,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI98">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ98">
         <v>1990</v>
       </c>
-      <c r="AJ98">
-        <v>1</v>
-      </c>
       <c r="AK98">
         <v>1</v>
       </c>
@@ -12307,12 +12895,18 @@
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>49500</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12411,11 +13005,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI99">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ99">
         <v>1990</v>
       </c>
-      <c r="AJ99">
-        <v>1</v>
-      </c>
       <c r="AK99">
         <v>1</v>
       </c>
@@ -12423,12 +13017,18 @@
         <v>1</v>
       </c>
       <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>252000</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12527,11 +13127,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI100">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ100">
         <v>1990</v>
       </c>
-      <c r="AJ100">
-        <v>1</v>
-      </c>
       <c r="AK100">
         <v>1</v>
       </c>
@@ -12539,12 +13139,18 @@
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>32000</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12643,11 +13249,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI101">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ101">
         <v>1990</v>
       </c>
-      <c r="AJ101">
-        <v>1</v>
-      </c>
       <c r="AK101">
         <v>1</v>
       </c>
@@ -12655,12 +13261,18 @@
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>153000</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12759,24 +13371,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI102">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ102">
         <v>1990</v>
       </c>
-      <c r="AJ102">
-        <v>1</v>
-      </c>
       <c r="AK102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>1</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>474500</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12875,24 +13493,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI103">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ103">
         <v>1990</v>
       </c>
-      <c r="AJ103">
-        <v>1</v>
-      </c>
       <c r="AK103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>230000</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12991,24 +13615,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI104">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ104">
         <v>1990</v>
       </c>
-      <c r="AJ104">
-        <v>1</v>
-      </c>
       <c r="AK104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>374500</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -13107,24 +13737,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI105">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ105">
         <v>1990</v>
       </c>
-      <c r="AJ105">
-        <v>1</v>
-      </c>
       <c r="AK105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>98000</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13223,24 +13859,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI106">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ106">
         <v>1990</v>
       </c>
-      <c r="AJ106">
-        <v>1</v>
-      </c>
       <c r="AK106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>1</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>232500</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13339,11 +13981,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI107">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ107">
         <v>1990</v>
       </c>
-      <c r="AJ107">
-        <v>1</v>
-      </c>
       <c r="AK107">
         <v>1</v>
       </c>
@@ -13351,12 +13993,18 @@
         <v>1</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>80000</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13455,11 +14103,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI108">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ108">
         <v>1990</v>
       </c>
-      <c r="AJ108">
-        <v>1</v>
-      </c>
       <c r="AK108">
         <v>1</v>
       </c>
@@ -13467,12 +14115,18 @@
         <v>1</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>83000</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13571,11 +14225,11 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI109">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ109">
         <v>1990</v>
       </c>
-      <c r="AJ109">
-        <v>1</v>
-      </c>
       <c r="AK109">
         <v>1</v>
       </c>
@@ -13583,12 +14237,18 @@
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>1</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>684500</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13687,24 +14347,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI110">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ110">
         <v>1990</v>
       </c>
-      <c r="AJ110">
-        <v>1</v>
-      </c>
       <c r="AK110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>1</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>233000</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13803,24 +14469,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI111">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ111">
         <v>1990</v>
       </c>
-      <c r="AJ111">
-        <v>1</v>
-      </c>
       <c r="AK111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>2696500</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13919,24 +14591,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI112">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ112">
         <v>1990</v>
       </c>
-      <c r="AJ112">
-        <v>1</v>
-      </c>
       <c r="AK112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>85500</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14035,24 +14713,30 @@
         <v>0.3223277590892985</v>
       </c>
       <c r="AI113">
+        <v>0.1983369377394228</v>
+      </c>
+      <c r="AJ113">
         <v>1990</v>
       </c>
-      <c r="AJ113">
-        <v>1</v>
-      </c>
       <c r="AK113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>82500</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14151,24 +14835,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI114">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ114">
         <v>1990</v>
       </c>
-      <c r="AJ114">
-        <v>1</v>
-      </c>
       <c r="AK114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>165500</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14267,11 +14957,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI115">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ115">
         <v>1990</v>
       </c>
-      <c r="AJ115">
-        <v>1</v>
-      </c>
       <c r="AK115">
         <v>1</v>
       </c>
@@ -14279,12 +14969,18 @@
         <v>1</v>
       </c>
       <c r="AM115">
+        <v>1</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>237000</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14383,24 +15079,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI116">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ116">
         <v>1990</v>
       </c>
-      <c r="AJ116">
-        <v>1</v>
-      </c>
       <c r="AK116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>467000</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14499,11 +15201,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI117">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ117">
         <v>1990</v>
       </c>
-      <c r="AJ117">
-        <v>1</v>
-      </c>
       <c r="AK117">
         <v>1</v>
       </c>
@@ -14511,12 +15213,18 @@
         <v>1</v>
       </c>
       <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>49500</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14615,11 +15323,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI118">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ118">
         <v>1990</v>
       </c>
-      <c r="AJ118">
-        <v>1</v>
-      </c>
       <c r="AK118">
         <v>1</v>
       </c>
@@ -14627,12 +15335,18 @@
         <v>1</v>
       </c>
       <c r="AM118">
+        <v>1</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>252000</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14731,11 +15445,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI119">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ119">
         <v>1990</v>
       </c>
-      <c r="AJ119">
-        <v>1</v>
-      </c>
       <c r="AK119">
         <v>1</v>
       </c>
@@ -14743,12 +15457,18 @@
         <v>1</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>32000</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14847,11 +15567,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI120">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ120">
         <v>1990</v>
       </c>
-      <c r="AJ120">
-        <v>1</v>
-      </c>
       <c r="AK120">
         <v>1</v>
       </c>
@@ -14859,12 +15579,18 @@
         <v>1</v>
       </c>
       <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>153000</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14963,24 +15689,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI121">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ121">
         <v>1990</v>
       </c>
-      <c r="AJ121">
-        <v>1</v>
-      </c>
       <c r="AK121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>1</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>474500</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15079,24 +15811,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI122">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ122">
         <v>1990</v>
       </c>
-      <c r="AJ122">
-        <v>1</v>
-      </c>
       <c r="AK122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM122">
+        <v>1</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>230000</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15195,24 +15933,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI123">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ123">
         <v>1990</v>
       </c>
-      <c r="AJ123">
-        <v>1</v>
-      </c>
       <c r="AK123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM123">
+        <v>1</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>374500</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15311,24 +16055,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI124">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ124">
         <v>1990</v>
       </c>
-      <c r="AJ124">
-        <v>1</v>
-      </c>
       <c r="AK124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>1</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>98000</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -15427,24 +16177,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI125">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ125">
         <v>1990</v>
       </c>
-      <c r="AJ125">
-        <v>1</v>
-      </c>
       <c r="AK125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>1</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>232500</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -15543,11 +16299,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI126">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ126">
         <v>1990</v>
       </c>
-      <c r="AJ126">
-        <v>1</v>
-      </c>
       <c r="AK126">
         <v>1</v>
       </c>
@@ -15555,12 +16311,18 @@
         <v>1</v>
       </c>
       <c r="AM126">
+        <v>1</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>80000</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15659,11 +16421,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI127">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ127">
         <v>1990</v>
       </c>
-      <c r="AJ127">
-        <v>1</v>
-      </c>
       <c r="AK127">
         <v>1</v>
       </c>
@@ -15671,12 +16433,18 @@
         <v>1</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>83000</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15775,11 +16543,11 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI128">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ128">
         <v>1990</v>
       </c>
-      <c r="AJ128">
-        <v>1</v>
-      </c>
       <c r="AK128">
         <v>1</v>
       </c>
@@ -15787,12 +16555,18 @@
         <v>1</v>
       </c>
       <c r="AM128">
+        <v>1</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>684500</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15891,24 +16665,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI129">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ129">
         <v>1990</v>
       </c>
-      <c r="AJ129">
-        <v>1</v>
-      </c>
       <c r="AK129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>1</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>233000</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -16007,24 +16787,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI130">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ130">
         <v>1990</v>
       </c>
-      <c r="AJ130">
-        <v>1</v>
-      </c>
       <c r="AK130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>1</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>2696500</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16123,24 +16909,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI131">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ131">
         <v>1990</v>
       </c>
-      <c r="AJ131">
-        <v>1</v>
-      </c>
       <c r="AK131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>1</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>85500</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16239,24 +17031,30 @@
         <v>0.387930043826664</v>
       </c>
       <c r="AI132">
+        <v>0.02503815901649041</v>
+      </c>
+      <c r="AJ132">
         <v>1990</v>
       </c>
-      <c r="AJ132">
-        <v>1</v>
-      </c>
       <c r="AK132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>1</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>82500</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16355,24 +17153,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI133">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ133">
         <v>1990</v>
       </c>
-      <c r="AJ133">
-        <v>1</v>
-      </c>
       <c r="AK133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
+        <v>1</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>557000</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16471,24 +17275,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI134">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ134">
         <v>1990</v>
       </c>
-      <c r="AJ134">
-        <v>1</v>
-      </c>
       <c r="AK134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>285000</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -16587,11 +17397,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI135">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ135">
         <v>1990</v>
       </c>
-      <c r="AJ135">
-        <v>1</v>
-      </c>
       <c r="AK135">
         <v>1</v>
       </c>
@@ -16599,12 +17409,18 @@
         <v>1</v>
       </c>
       <c r="AM135">
+        <v>1</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>356000</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16703,24 +17519,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI136">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ136">
         <v>1990</v>
       </c>
-      <c r="AJ136">
-        <v>1</v>
-      </c>
       <c r="AK136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM136">
+        <v>1</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>956000</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16819,11 +17641,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI137">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ137">
         <v>1990</v>
       </c>
-      <c r="AJ137">
-        <v>1</v>
-      </c>
       <c r="AK137">
         <v>1</v>
       </c>
@@ -16831,12 +17653,18 @@
         <v>1</v>
       </c>
       <c r="AM137">
+        <v>1</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>84000</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -16935,11 +17763,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI138">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ138">
         <v>1990</v>
       </c>
-      <c r="AJ138">
-        <v>1</v>
-      </c>
       <c r="AK138">
         <v>1</v>
       </c>
@@ -16947,12 +17775,18 @@
         <v>1</v>
       </c>
       <c r="AM138">
+        <v>1</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>361000</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17051,11 +17885,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI139">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ139">
         <v>1990</v>
       </c>
-      <c r="AJ139">
-        <v>1</v>
-      </c>
       <c r="AK139">
         <v>1</v>
       </c>
@@ -17063,12 +17897,18 @@
         <v>1</v>
       </c>
       <c r="AM139">
+        <v>1</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>271000</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -17167,24 +18007,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI140">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ140">
         <v>1990</v>
       </c>
-      <c r="AJ140">
-        <v>1</v>
-      </c>
       <c r="AK140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM140">
+        <v>1</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>1268000</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -17283,24 +18129,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI141">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ141">
         <v>1990</v>
       </c>
-      <c r="AJ141">
-        <v>1</v>
-      </c>
       <c r="AK141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>1</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>129000</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -17399,11 +18251,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI142">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ142">
         <v>1990</v>
       </c>
-      <c r="AJ142">
-        <v>1</v>
-      </c>
       <c r="AK142">
         <v>1</v>
       </c>
@@ -17411,12 +18263,18 @@
         <v>1</v>
       </c>
       <c r="AM142">
+        <v>1</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>3000</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -17515,24 +18373,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI143">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ143">
         <v>1990</v>
       </c>
-      <c r="AJ143">
-        <v>1</v>
-      </c>
       <c r="AK143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM143">
+        <v>1</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>610000</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -17631,24 +18495,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI144">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ144">
         <v>1990</v>
       </c>
-      <c r="AJ144">
-        <v>1</v>
-      </c>
       <c r="AK144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM144">
+        <v>1</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>217000</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -17747,24 +18617,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI145">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ145">
         <v>1990</v>
       </c>
-      <c r="AJ145">
-        <v>1</v>
-      </c>
       <c r="AK145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>187000</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -17863,11 +18739,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI146">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ146">
         <v>1990</v>
       </c>
-      <c r="AJ146">
-        <v>1</v>
-      </c>
       <c r="AK146">
         <v>1</v>
       </c>
@@ -17875,12 +18751,18 @@
         <v>1</v>
       </c>
       <c r="AM146">
+        <v>1</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>87000</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -17979,11 +18861,11 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI147">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ147">
         <v>1990</v>
       </c>
-      <c r="AJ147">
-        <v>1</v>
-      </c>
       <c r="AK147">
         <v>1</v>
       </c>
@@ -17991,12 +18873,18 @@
         <v>1</v>
       </c>
       <c r="AM147">
+        <v>1</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>1302000</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -18095,24 +18983,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI148">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ148">
         <v>1990</v>
       </c>
-      <c r="AJ148">
-        <v>1</v>
-      </c>
       <c r="AK148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>1</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>476000</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -18211,30 +19105,36 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI149">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ149">
         <v>1990</v>
       </c>
-      <c r="AJ149">
-        <v>1</v>
-      </c>
       <c r="AK149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM149">
+        <v>1</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>1373000</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -18327,24 +19227,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI150">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ150">
         <v>1990</v>
       </c>
-      <c r="AJ150">
-        <v>1</v>
-      </c>
       <c r="AK150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>66000</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -18443,24 +19349,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI151">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ151">
         <v>1990</v>
       </c>
-      <c r="AJ151">
-        <v>1</v>
-      </c>
       <c r="AK151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM151">
+        <v>1</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>177000</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -18559,24 +19471,30 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI152">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ152">
         <v>1990</v>
       </c>
-      <c r="AJ152">
-        <v>1</v>
-      </c>
       <c r="AK152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM152">
+        <v>1</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>451000</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18675,18 +19593,24 @@
         <v>0.5786039995035721</v>
       </c>
       <c r="AI153">
+        <v>0.04257051885495406</v>
+      </c>
+      <c r="AJ153">
         <v>1990</v>
       </c>
-      <c r="AJ153">
-        <v>1</v>
-      </c>
       <c r="AK153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM153">
+        <v>1</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
         <v>227000</v>
       </c>
     </row>

--- a/output/medicos del mundo.xlsx
+++ b/output/medicos del mundo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>2012_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2012_angola</t>
@@ -1200,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1444,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D6">
         <v>628065</v>
@@ -1688,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1810,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1932,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2054,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2176,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2420,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2542,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D14">
         <v>2400000</v>
@@ -2664,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4510</v>
+        <v>5318.006939671951</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3152,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3274,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D20">
         <v>1600000</v>
@@ -3396,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D21">
         <v>182971</v>
@@ -3518,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D22">
         <v>1600000</v>
@@ -3640,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>420</v>
+        <v>401.8350013668368</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3762,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3884,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D25">
         <v>1450000</v>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D26">
         <v>1450000</v>
@@ -4128,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D27">
         <v>593835</v>
@@ -4230,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -4250,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D28">
         <v>1450000</v>
@@ -4372,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D29">
         <v>1450000</v>
@@ -4494,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D30">
         <v>1200000</v>
@@ -4616,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4738,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D32">
         <v>1200000</v>
@@ -4860,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D33">
         <v>1200000</v>
@@ -5104,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5226,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D36">
         <v>2400000</v>
@@ -5348,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5592,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5714,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D40">
         <v>1600000</v>
@@ -5836,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D41">
         <v>1600000</v>
@@ -5958,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>430</v>
+        <v>417.6031683854853</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6080,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6202,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D44">
         <v>1450000</v>
@@ -6324,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D45">
         <v>1450000</v>
@@ -6446,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D46">
         <v>593835</v>
@@ -6548,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -6568,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D47">
         <v>1450000</v>
@@ -6690,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D48">
         <v>1450000</v>
@@ -6812,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D49">
         <v>1200000</v>
@@ -6934,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D50">
         <v>1200000</v>
@@ -7056,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D51">
         <v>1200000</v>
@@ -7300,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7544,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7666,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7788,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7910,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8032,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8154,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8398,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>3650</v>
+        <v>3487.613616731733</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8519,8 +8516,8 @@
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" t="s">
-        <v>103</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8636,13 +8633,13 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8758,13 +8755,13 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8880,13 +8877,13 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9002,13 +8999,13 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9124,13 +9121,13 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9246,13 +9243,13 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9368,13 +9365,13 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>530</v>
+        <v>470.3014046213344</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9490,13 +9487,13 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9612,7 +9609,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9734,13 +9731,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1360</v>
+        <v>1652.714170143609</v>
       </c>
       <c r="D73">
         <v>478824</v>
@@ -9856,13 +9853,13 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9978,13 +9975,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10100,13 +10097,13 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10222,13 +10219,13 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10344,13 +10341,13 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10466,13 +10463,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10588,13 +10585,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10710,13 +10707,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10832,7 +10829,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10954,13 +10951,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3750</v>
+        <v>3405.472039138021</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11076,13 +11073,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84" t="s">
-        <v>103</v>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11198,13 +11195,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11320,13 +11317,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11442,13 +11439,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11564,13 +11561,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11686,13 +11683,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11808,13 +11805,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11930,13 +11927,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>660</v>
+        <v>555.2055623950326</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12052,13 +12049,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12174,7 +12171,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -12296,13 +12293,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1450</v>
+        <v>1671.292192516047</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12418,13 +12415,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12540,13 +12537,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12662,13 +12659,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12784,13 +12781,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12906,13 +12903,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13028,13 +13025,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13150,13 +13147,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13272,13 +13269,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13380,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="AL102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102">
         <v>1</v>
@@ -13394,13 +13391,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13516,13 +13513,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D104">
         <v>635291</v>
@@ -13638,13 +13635,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13760,13 +13757,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13882,13 +13879,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14004,13 +14001,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14126,7 +14123,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -14248,13 +14245,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14370,13 +14367,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>700</v>
+        <v>567.8342670439314</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14492,13 +14489,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>970</v>
+        <v>846.386841468855</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14614,7 +14611,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14736,13 +14733,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14858,13 +14855,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14980,13 +14977,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15102,13 +15099,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15224,13 +15221,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15346,13 +15343,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15468,13 +15465,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15590,13 +15587,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15698,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="AL121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM121">
         <v>1</v>
@@ -15712,13 +15709,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15834,13 +15831,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D123">
         <v>635291</v>
@@ -15956,13 +15953,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D124">
         <v>182345</v>
@@ -16078,13 +16075,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16200,13 +16197,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16322,13 +16319,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16444,7 +16441,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -16566,13 +16563,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16688,13 +16685,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>550</v>
+        <v>441.1376640642927</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16810,13 +16807,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>980</v>
+        <v>871.998368594318</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16932,7 +16929,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -17054,13 +17051,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17176,13 +17173,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17298,13 +17295,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17420,13 +17417,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17542,13 +17539,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17664,13 +17661,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17786,13 +17783,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17908,13 +17905,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18016,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="AL140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM140">
         <v>1</v>
@@ -18030,13 +18027,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18152,13 +18149,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18274,13 +18271,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18396,13 +18393,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D144">
         <v>182345</v>
@@ -18518,13 +18515,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18640,13 +18637,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -18762,7 +18759,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -18884,13 +18881,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19006,13 +19003,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>490</v>
+        <v>457.8330917196623</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19128,13 +19125,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150" t="s">
-        <v>103</v>
+      <c r="C150">
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19250,13 +19247,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>970</v>
+        <v>904.381892324943</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19372,7 +19369,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -19494,13 +19491,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D153">
         <v>0</v>

--- a/output/medicos del mundo.xlsx
+++ b/output/medicos del mundo.xlsx
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>1873.394108966653</v>
       </c>
       <c r="D6">
-        <v>628065</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>623339</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D17">
         <v>4000000</v>
@@ -3396,7 +3396,7 @@
         <v>1610.923908476106</v>
       </c>
       <c r="D21">
-        <v>182971</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>492.3430015592067</v>
       </c>
       <c r="D36">
-        <v>2400000</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1810025</v>
@@ -5467,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D38">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1018496</v>
@@ -5714,7 +5714,7 @@
         <v>711.1128122770988</v>
       </c>
       <c r="D40">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>407604</v>
@@ -5836,7 +5836,7 @@
         <v>1263.452411343738</v>
       </c>
       <c r="D41">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>884046</v>
@@ -6202,7 +6202,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D44">
-        <v>1450000</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>705243</v>
@@ -6324,7 +6324,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D45">
-        <v>1450000</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>708500</v>
@@ -6446,7 +6446,7 @@
         <v>691.8942672110555</v>
       </c>
       <c r="D46">
-        <v>593835</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>1047197</v>
@@ -6568,7 +6568,7 @@
         <v>1939.33862702996</v>
       </c>
       <c r="D47">
-        <v>1450000</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>712215</v>
@@ -6690,7 +6690,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D48">
-        <v>1450000</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>540396</v>
@@ -6812,7 +6812,7 @@
         <v>2024.117324382548</v>
       </c>
       <c r="D49">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>315000</v>
@@ -6934,7 +6934,7 @@
         <v>4921.848409120176</v>
       </c>
       <c r="D50">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>117925</v>
@@ -7056,7 +7056,7 @@
         <v>5360.226632400601</v>
       </c>
       <c r="D51">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>528000</v>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>279000</v>
+        <v>700000</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>231000</v>
+        <v>800000</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>241000</v>
+        <v>700000</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>154000</v>
+        <v>650000</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>191500</v>
+        <v>400000</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>159000</v>
+        <v>280000</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>224500</v>
+        <v>350000</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>57000</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>43000</v>
+        <v>1200000</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -11079,13 +11079,13 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>173500</v>
+        <v>2061672</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>616500</v>
+        <v>380000</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>14000</v>
+        <v>560000</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>277500</v>
+        <v>250000</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>568500</v>
+        <v>1175000</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>202000</v>
+        <v>750000</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>461500</v>
+        <v>1100000</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>105500</v>
+        <v>515043</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12177,13 +12177,13 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>503000</v>
+        <v>800000</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>287000</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D109">
         <v>2500000</v>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14736,7 +14736,7 @@
         <v>153</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>3748.320622951519</v>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>165500</v>
+        <v>173500</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>237000</v>
+        <v>224500</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -14980,7 +14980,7 @@
         <v>155</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>726.6520119370772</v>
@@ -14989,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>467000</v>
+        <v>616500</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>49500</v>
+        <v>159000</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>252000</v>
+        <v>231000</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>32000</v>
+        <v>57000</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>153000</v>
+        <v>241000</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -15590,7 +15590,7 @@
         <v>160</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>729.1196658666737</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>474500</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -15712,7 +15712,7 @@
         <v>161</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>729.7808175407341</v>
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>230000</v>
+        <v>277500</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -15834,16 +15834,16 @@
         <v>162</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>1732.587316450496</v>
       </c>
       <c r="D123">
-        <v>635291</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>374500</v>
+        <v>287000</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -15956,7 +15956,7 @@
         <v>163</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>579.0880693780265</v>
@@ -15965,7 +15965,7 @@
         <v>182345</v>
       </c>
       <c r="E124">
-        <v>98000</v>
+        <v>568500</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -16078,7 +16078,7 @@
         <v>164</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>731.9993357350996</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>232500</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>80000</v>
+        <v>279000</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>83000</v>
+        <v>191500</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -16447,13 +16447,13 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D128">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>684500</v>
+        <v>503000</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -16566,7 +16566,7 @@
         <v>168</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>1384.519227335143</v>
@@ -16575,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>233000</v>
+        <v>202000</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -16688,7 +16688,7 @@
         <v>169</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130">
         <v>441.1376640642927</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>2696500</v>
+        <v>461500</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>85500</v>
+        <v>105500</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -16935,13 +16935,13 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D132">
         <v>300000</v>
       </c>
       <c r="E132">
-        <v>82500</v>
+        <v>43000</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -18402,7 +18402,7 @@
         <v>584.2111078769213</v>
       </c>
       <c r="D144">
-        <v>182345</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>98000</v>
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19131,7 +19131,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D152">
         <v>390034</v>
